--- a/Assets/Game/Content/Data/CardTable.xlsx
+++ b/Assets/Game/Content/Data/CardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProj\NineLivesAtlier\Assets\Game\Content\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83999D6B-553D-4A87-AA7B-4C0AAAAA2ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F7ECC9-C5C8-4F70-A0B7-52664A63A2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="430">
   <si>
     <t>Id</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>TestFirePotion</t>
-  </si>
-  <si>
-    <t>Card/Card.BasicFirePotion</t>
   </si>
   <si>
     <t>Normal</t>
@@ -1509,7 +1506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1525,6 +1522,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1802,21 +1800,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.09765625" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" customWidth="1"/>
-    <col min="3" max="4" width="19.296875" customWidth="1"/>
-    <col min="5" max="5" width="22.19921875" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" customWidth="1"/>
-    <col min="7" max="7" width="19.09765625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="10" max="10" width="14.09765625" customWidth="1"/>
-    <col min="11" max="11" width="62.796875" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="62.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1986,8 +1984,8 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
-        <v>46</v>
+      <c r="C6" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1996,16 +1994,16 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
         <v>43</v>
@@ -2013,22 +2011,22 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
         <v>41</v>
@@ -2037,18 +2035,18 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
         <v>53</v>
-      </c>
-      <c r="K7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -2060,7 +2058,7 @@
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
         <v>41</v>
@@ -2077,10 +2075,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2092,7 +2090,7 @@
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
         <v>41</v>
@@ -2118,19 +2116,19 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="2" width="23.796875" customWidth="1"/>
-    <col min="3" max="4" width="19.296875" customWidth="1"/>
-    <col min="6" max="6" width="26.19921875" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="4" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.796875" customWidth="1"/>
-    <col min="10" max="10" width="12.296875" customWidth="1"/>
-    <col min="11" max="11" width="45.796875" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2141,10 +2139,10 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -2170,13 +2168,13 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>39</v>
@@ -2185,10 +2183,10 @@
         <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -2200,18 +2198,18 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
@@ -2220,217 +2218,217 @@
         <v>33</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2">
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="2">
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>41</v>
@@ -2439,468 +2437,468 @@
         <v>4</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="2">
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="2">
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="2">
         <v>4</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="2">
         <v>4</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="2">
         <v>4</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="I16" s="2">
         <v>4</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="3">
         <v>8</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="3">
         <v>8</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I20" s="3">
         <v>8</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="L20" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="3">
         <v>9</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="L21" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I22" s="3">
         <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="L22" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I23" s="3">
         <v>8</v>
       </c>
       <c r="J23" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="L23" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I24" s="3">
         <v>8</v>
       </c>
       <c r="J24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="L24" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2919,15 +2917,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="2" width="23.796875" customWidth="1"/>
-    <col min="3" max="3" width="28.296875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
-    <col min="6" max="6" width="26.19921875" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.796875" customWidth="1"/>
-    <col min="10" max="10" width="12.296875" customWidth="1"/>
-    <col min="11" max="11" width="45.796875" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2938,10 +2936,10 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -2967,25 +2965,25 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -2997,132 +2995,132 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>41</v>
@@ -3131,173 +3129,173 @@
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>397</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" s="2">
         <v>4</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" s="2">
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>400</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="2">
         <v>5</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="I11" s="2">
         <v>4</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>41</v>
@@ -3306,106 +3304,106 @@
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I13" s="2">
         <v>5</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>402</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I14" s="2">
         <v>5</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I15" s="2">
         <v>5</v>
@@ -3414,97 +3412,97 @@
         <v>34</v>
       </c>
       <c r="K15" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I16" s="2">
         <v>5</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I18" s="3">
         <v>8</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>40</v>
@@ -3516,100 +3514,100 @@
         <v>8</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I20" s="3">
         <v>8</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I21" s="3">
         <v>8</v>
       </c>
       <c r="J21" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>40</v>
@@ -3621,83 +3619,83 @@
         <v>8</v>
       </c>
       <c r="J22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I23" s="3">
         <v>9</v>
       </c>
       <c r="J23" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I24" s="3">
         <v>8</v>
       </c>
       <c r="J24" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="L24" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3719,21 +3717,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2441ED13-5DB1-49F6-B610-4785970FA9EB}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="2" width="23.796875" customWidth="1"/>
-    <col min="3" max="3" width="28.296875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
-    <col min="6" max="6" width="26.19921875" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.796875" customWidth="1"/>
-    <col min="10" max="10" width="12.296875" customWidth="1"/>
-    <col min="11" max="11" width="45.796875" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3744,10 +3742,10 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -3773,25 +3771,25 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -3800,418 +3798,418 @@
         <v>34</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K7" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I9" s="2">
         <v>5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I10" s="2">
         <v>5</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I11" s="2">
         <v>5</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I12" s="2">
         <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="L12" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I13" s="2">
         <v>5</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="L13" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I14" s="2">
         <v>5</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="L14" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I15" s="2">
         <v>5</v>
@@ -4220,94 +4218,94 @@
         <v>34</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I16" s="2">
         <v>5</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="L16" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1">
       <c r="A18" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I18" s="3">
         <v>8</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1">
       <c r="A19" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>33</v>
@@ -4316,33 +4314,33 @@
         <v>40</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I19" s="3">
         <v>8</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="L19" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1">
       <c r="A20" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>33</v>
@@ -4351,33 +4349,33 @@
         <v>40</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I20" s="3">
         <v>8</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="L20" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1">
       <c r="A21" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>33</v>
@@ -4386,33 +4384,33 @@
         <v>40</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I21" s="3">
         <v>8</v>
       </c>
       <c r="J21" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="L21" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1">
       <c r="A22" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>33</v>
@@ -4421,33 +4419,33 @@
         <v>40</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I22" s="3">
         <v>8</v>
       </c>
       <c r="J22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>242</v>
-      </c>
       <c r="L22" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1">
       <c r="A23" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>33</v>
@@ -4456,33 +4454,33 @@
         <v>40</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I23" s="3">
         <v>8</v>
       </c>
       <c r="J23" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="L23" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1">
       <c r="A24" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>33</v>
@@ -4491,19 +4489,19 @@
         <v>40</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I24" s="3">
         <v>8</v>
       </c>
       <c r="J24" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="L24" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -4531,14 +4529,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="2" width="23.796875" customWidth="1"/>
-    <col min="3" max="4" width="19.296875" customWidth="1"/>
-    <col min="6" max="6" width="26.19921875" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="4" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.796875" customWidth="1"/>
-    <col min="10" max="10" width="12.296875" customWidth="1"/>
-    <col min="11" max="11" width="45.796875" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4549,10 +4547,10 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -4578,220 +4576,220 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I2" s="1">
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="2">
         <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5" s="2">
         <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="I7" s="2">
         <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" s="2">
         <v>6</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -4800,68 +4798,68 @@
         <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="2">
         <v>5</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I11" s="3">
         <v>7</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1">
       <c r="A12" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>32</v>
@@ -4870,77 +4868,77 @@
         <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="3">
         <v>7</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I13" s="3">
         <v>8</v>
       </c>
       <c r="J13" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>40</v>
@@ -4952,48 +4950,48 @@
         <v>7</v>
       </c>
       <c r="J14" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I15" s="3">
         <v>10</v>
       </c>
       <c r="J15" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="L15" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
